--- a/Outputs/results1995/QAR_logReport1995(C).xlsx
+++ b/Outputs/results1995/QAR_logReport1995(C).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>Countries</t>
   </si>
@@ -49,229 +49,289 @@
     <t>QKS</t>
   </si>
   <si>
-    <t>0.99(0.4)</t>
-  </si>
-  <si>
-    <t>-0.62(0.6)</t>
-  </si>
-  <si>
-    <t>1.92(0.5)</t>
-  </si>
-  <si>
-    <t>0.96(0.6)</t>
-  </si>
-  <si>
-    <t>-1.47(0.1)*</t>
-  </si>
-  <si>
-    <t>1.53(0.9)</t>
-  </si>
-  <si>
-    <t>0.99(0.8)</t>
-  </si>
-  <si>
-    <t>-0.18(0.9)</t>
-  </si>
-  <si>
-    <t>1.54(0.7)</t>
-  </si>
-  <si>
-    <t>0.94(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.23(0.0)***</t>
-  </si>
-  <si>
-    <t>2.25(0.1)*</t>
-  </si>
-  <si>
-    <t>1.0(0.9)</t>
-  </si>
-  <si>
-    <t>-0.13(0.9)</t>
+    <t>0.99(0.476)</t>
+  </si>
+  <si>
+    <t>-0.62(0.557)</t>
+  </si>
+  <si>
+    <t>1.92(0.506)</t>
+  </si>
+  <si>
+    <t>0.96(0.315)</t>
+  </si>
+  <si>
+    <t>-1.47(0.068)*</t>
+  </si>
+  <si>
+    <t>1.53(0.561)</t>
+  </si>
+  <si>
+    <t>0.99(0.64)</t>
+  </si>
+  <si>
+    <t>-0.18(0.791)</t>
+  </si>
+  <si>
+    <t>1.54(0.645)</t>
+  </si>
+  <si>
+    <t>0.94(0.052)*</t>
+  </si>
+  <si>
+    <t>-2.23(0.059)*</t>
+  </si>
+  <si>
+    <t>2.25(0.347)</t>
+  </si>
+  <si>
+    <t>1.0(0.716)</t>
+  </si>
+  <si>
+    <t>-0.13(0.799)</t>
   </si>
   <si>
     <t>5.27(0.0)***</t>
   </si>
   <si>
-    <t>1.0(0.6)</t>
-  </si>
-  <si>
-    <t>-0.45(0.7)</t>
-  </si>
-  <si>
-    <t>0.99(0.9)</t>
-  </si>
-  <si>
-    <t>-0.45(0.9)</t>
-  </si>
-  <si>
-    <t>1.0(0.8)</t>
+    <t>1.0(0.587)</t>
+  </si>
+  <si>
+    <t>-0.45(0.682)</t>
+  </si>
+  <si>
+    <t>0.99(0.683)</t>
+  </si>
+  <si>
+    <t>-0.45(0.65)</t>
+  </si>
+  <si>
+    <t>1.0(0.911)</t>
   </si>
   <si>
     <t>∞</t>
   </si>
   <si>
-    <t>0.13(0.8)</t>
-  </si>
-  <si>
-    <t>0.97(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.06(0.1)*</t>
-  </si>
-  <si>
-    <t>0.99(0.5)</t>
-  </si>
-  <si>
-    <t>-0.45(0.6)</t>
-  </si>
-  <si>
-    <t>-1.05(0.5)</t>
-  </si>
-  <si>
-    <t>-1.53(0.2)</t>
-  </si>
-  <si>
-    <t>0.99(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.36(0.1)*</t>
-  </si>
-  <si>
-    <t>0.98(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.06(0.0)***</t>
-  </si>
-  <si>
-    <t>0.99(0.3)</t>
-  </si>
-  <si>
-    <t>-1.26(0.2)</t>
-  </si>
-  <si>
-    <t>-0.62(0.5)</t>
-  </si>
-  <si>
-    <t>-0.42(0.9)</t>
-  </si>
-  <si>
-    <t>0.99(0.2)</t>
-  </si>
-  <si>
-    <t>-1.03(0.5)</t>
+    <t>0.13(0.882)</t>
+  </si>
+  <si>
+    <t>0.97(0.076)*</t>
+  </si>
+  <si>
+    <t>-2.06(0.114)</t>
+  </si>
+  <si>
+    <t>0.99(0.473)</t>
+  </si>
+  <si>
+    <t>-0.45(0.649)</t>
+  </si>
+  <si>
+    <t>0.99(0.455)</t>
+  </si>
+  <si>
+    <t>-1.05(0.46)</t>
+  </si>
+  <si>
+    <t>0.99(0.46)</t>
+  </si>
+  <si>
+    <t>-1.53(0.217)</t>
+  </si>
+  <si>
+    <t>0.99(0.134)</t>
+  </si>
+  <si>
+    <t>-1.36(0.302)</t>
+  </si>
+  <si>
+    <t>0.98(0.071)*</t>
+  </si>
+  <si>
+    <t>-2.06(0.088)*</t>
+  </si>
+  <si>
+    <t>0.99(0.133)</t>
+  </si>
+  <si>
+    <t>-1.26(0.322)</t>
+  </si>
+  <si>
+    <t>1.0(0.582)</t>
+  </si>
+  <si>
+    <t>-0.62(0.668)</t>
+  </si>
+  <si>
+    <t>1.0(0.692)</t>
+  </si>
+  <si>
+    <t>-0.42(0.637)</t>
+  </si>
+  <si>
+    <t>0.99(0.163)</t>
+  </si>
+  <si>
+    <t>-1.03(0.384)</t>
+  </si>
+  <si>
+    <t>0.98(0.062)*</t>
+  </si>
+  <si>
+    <t>-2.18(0.084)*</t>
+  </si>
+  <si>
+    <t>0.99(0.047)**</t>
+  </si>
+  <si>
+    <t>-2.2(0.058)*</t>
+  </si>
+  <si>
+    <t>1.0(0.791)</t>
+  </si>
+  <si>
+    <t>-0.14(0.828)</t>
+  </si>
+  <si>
+    <t>1.0(0.732)</t>
+  </si>
+  <si>
+    <t>-0.16(0.745)</t>
+  </si>
+  <si>
+    <t>-1.14(0.333)</t>
+  </si>
+  <si>
+    <t>0.97(0.058)*</t>
+  </si>
+  <si>
+    <t>-2.25(0.105)</t>
+  </si>
+  <si>
+    <t>0.98(0.014)**</t>
+  </si>
+  <si>
+    <t>-3.48(0.001)***</t>
+  </si>
+  <si>
+    <t>0.99(0.309)</t>
+  </si>
+  <si>
+    <t>-1.46(0.291)</t>
+  </si>
+  <si>
+    <t>1.0(0.753)</t>
+  </si>
+  <si>
+    <t>0.01(0.775)</t>
+  </si>
+  <si>
+    <t>0.99(0.089)*</t>
+  </si>
+  <si>
+    <t>-1.54(0.254)</t>
+  </si>
+  <si>
+    <t>0.98(0.127)</t>
+  </si>
+  <si>
+    <t>-1.94(0.185)</t>
   </si>
   <si>
     <t>0.98(0.0)***</t>
   </si>
   <si>
-    <t>-2.18(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.2(0.0)***</t>
-  </si>
-  <si>
-    <t>1.0(0.7)</t>
-  </si>
-  <si>
-    <t>-0.14(0.8)</t>
-  </si>
-  <si>
-    <t>1.0(1.0)</t>
-  </si>
-  <si>
-    <t>-0.16(1.0)</t>
-  </si>
-  <si>
-    <t>-1.14(0.4)</t>
-  </si>
-  <si>
-    <t>0.97(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.25(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.48(0.0)***</t>
-  </si>
-  <si>
-    <t>0.99(0.1)*</t>
-  </si>
-  <si>
-    <t>-1.46(0.2)</t>
-  </si>
-  <si>
-    <t>0.01(1.0)</t>
-  </si>
-  <si>
-    <t>-1.54(0.3)</t>
-  </si>
-  <si>
-    <t>-1.94(0.0)***</t>
-  </si>
-  <si>
     <t>-5.27(0.0)***</t>
   </si>
   <si>
-    <t>-1.67(0.2)</t>
-  </si>
-  <si>
-    <t>0.47(1.0)</t>
-  </si>
-  <si>
-    <t>-0.74(0.5)</t>
-  </si>
-  <si>
-    <t>-1.3(0.2)</t>
-  </si>
-  <si>
-    <t>-4.11(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.92(0.1)*</t>
-  </si>
-  <si>
-    <t>1.01(1.0)</t>
-  </si>
-  <si>
-    <t>1.14(1.0)</t>
-  </si>
-  <si>
-    <t>1.0(0.5)</t>
-  </si>
-  <si>
-    <t>-0.19(0.7)</t>
-  </si>
-  <si>
-    <t>-0.84(0.3)</t>
-  </si>
-  <si>
-    <t>-3.72(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.76(0.4)</t>
-  </si>
-  <si>
-    <t>1.02(1.0)</t>
-  </si>
-  <si>
-    <t>1.36(1.0)</t>
-  </si>
-  <si>
-    <t>0.84(1.0)</t>
-  </si>
-  <si>
-    <t>1.01(0.9)</t>
-  </si>
-  <si>
-    <t>0.34(0.8)</t>
-  </si>
-  <si>
-    <t>0.95(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.72(0.0)***</t>
+    <t>0.99(0.266)</t>
+  </si>
+  <si>
+    <t>-1.67(0.238)</t>
+  </si>
+  <si>
+    <t>1.0(0.846)</t>
+  </si>
+  <si>
+    <t>0.47(0.892)</t>
+  </si>
+  <si>
+    <t>0.99(0.254)</t>
+  </si>
+  <si>
+    <t>-0.74(0.46)</t>
+  </si>
+  <si>
+    <t>0.99(0.205)</t>
+  </si>
+  <si>
+    <t>-1.3(0.382)</t>
+  </si>
+  <si>
+    <t>0.97(0.003)***</t>
+  </si>
+  <si>
+    <t>-4.11(0.001)***</t>
+  </si>
+  <si>
+    <t>0.98(0.185)</t>
+  </si>
+  <si>
+    <t>-1.92(0.135)</t>
+  </si>
+  <si>
+    <t>1.01(0.948)</t>
+  </si>
+  <si>
+    <t>1.14(0.971)</t>
+  </si>
+  <si>
+    <t>1.0(0.658)</t>
+  </si>
+  <si>
+    <t>-0.19(0.717)</t>
+  </si>
+  <si>
+    <t>0.99(0.286)</t>
+  </si>
+  <si>
+    <t>-0.84(0.48)</t>
+  </si>
+  <si>
+    <t>0.97(0.005)***</t>
+  </si>
+  <si>
+    <t>-3.72(0.002)***</t>
+  </si>
+  <si>
+    <t>0.99(0.368)</t>
+  </si>
+  <si>
+    <t>-0.76(0.473)</t>
+  </si>
+  <si>
+    <t>1.02(0.93)</t>
+  </si>
+  <si>
+    <t>1.36(0.983)</t>
+  </si>
+  <si>
+    <t>1.01(0.988)</t>
+  </si>
+  <si>
+    <t>0.84(0.948)</t>
+  </si>
+  <si>
+    <t>1.01(0.921)</t>
+  </si>
+  <si>
+    <t>0.34(0.878)</t>
+  </si>
+  <si>
+    <t>0.95(0.019)**</t>
+  </si>
+  <si>
+    <t>-2.72(0.009)***</t>
   </si>
 </sst>
 </file>
@@ -684,25 +744,25 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -750,25 +810,25 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -794,25 +854,25 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -860,25 +920,25 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -904,25 +964,25 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -970,25 +1030,25 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1014,25 +1074,25 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1080,25 +1140,25 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1124,25 +1184,25 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1190,25 +1250,25 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11">
